--- a/src/Tests/Templates/Persons.xlsx
+++ b/src/Tests/Templates/Persons.xlsx
@@ -225,6 +225,9 @@
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -882,7 +885,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="S2" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T2" t="s">
         <x:v>29</x:v>
@@ -918,7 +921,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="S3" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T3" t="s">
         <x:v>29</x:v>
